--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teode\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90AEBA6E-6C02-4137-9311-3BDD9A3DACD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30748E06-EC8A-4D30-AB78-F835E4117347}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D5198B59-B50F-4691-A5E8-5B3297777322}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{D5198B59-B50F-4691-A5E8-5B3297777322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="41">
   <si>
     <t>Request</t>
   </si>
@@ -107,6 +107,59 @@
   <si>
     <t>requestParams1.put("name", "sample");
 		requestParams1.put("job", "leader");</t>
+  </si>
+  <si>
+    <t>PATCH</t>
+  </si>
+  <si>
+    <t>Should update a new data with valid request body</t>
+  </si>
+  <si>
+    <t>requestParams1.put("name", "new name");
+		requestParams1.put("job", "new job");</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>requestParams1.put("name", "change name");
+		requestParams1.put("job", "no job");</t>
+  </si>
+  <si>
+    <t>The api accepted incorrect parameters</t>
+  </si>
+  <si>
+    <t>Should not accept invalid parameters</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>status code must be 204</t>
+  </si>
+  <si>
+    <t>Deleted</t>
+  </si>
+  <si>
+    <t>Should fail changed assert status to 200</t>
+  </si>
+  <si>
+    <t>Assert.assertEquals(…., 200)</t>
+  </si>
+  <si>
+    <t>https://reqres.in/api/register</t>
+  </si>
+  <si>
+    <t>Should fail missing password field</t>
+  </si>
+  <si>
+    <t>requestParams1.put("email", "eve.holt@reqres.in");</t>
+  </si>
+  <si>
+    <t>Should give 201 successful post</t>
+  </si>
+  <si>
+    <t>even with right parameter test fails</t>
   </si>
 </sst>
 </file>
@@ -511,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC691FDD-6143-495D-816A-C73FC07DE9CB}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,6 +746,136 @@
         <v>23</v>
       </c>
     </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
@@ -707,6 +890,14 @@
     <hyperlink ref="B8" r:id="rId9" xr:uid="{42B178B0-840D-4794-B733-25E4E58D3248}"/>
     <hyperlink ref="B10" r:id="rId10" xr:uid="{FA92257B-FE3B-441C-8CD9-139222B0CDBE}"/>
     <hyperlink ref="B11" r:id="rId11" xr:uid="{28F24DD0-9819-49AD-A6A2-F09D05FBA1E3}"/>
+    <hyperlink ref="B12" r:id="rId12" xr:uid="{0CC46F9F-0F48-44BB-95E6-C6717C7FEAE4}"/>
+    <hyperlink ref="B13" r:id="rId13" xr:uid="{9132F3B0-D47D-420B-AC85-2D33CC476F8A}"/>
+    <hyperlink ref="B14" r:id="rId14" xr:uid="{F6965E70-0765-4B85-97EE-07448B126372}"/>
+    <hyperlink ref="B15" r:id="rId15" xr:uid="{541A7529-5249-436A-9BB8-31ED5E7BD532}"/>
+    <hyperlink ref="B16" r:id="rId16" xr:uid="{973AAB58-5625-4B54-9CE0-3504D08B5A00}"/>
+    <hyperlink ref="B17" r:id="rId17" xr:uid="{7052EA81-BBC3-43BE-8999-FB4C45F53EC8}"/>
+    <hyperlink ref="B18" r:id="rId18" xr:uid="{0E26651E-85F2-4FD1-99A2-C668C242859B}"/>
+    <hyperlink ref="B19" r:id="rId19" xr:uid="{1909ECBD-063E-46B8-9F30-2E93A87A397A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
